--- a/Horas/Junio.xlsx
+++ b/Horas/Junio.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="8505"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -66,8 +66,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,7 +300,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -335,7 +334,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -511,14 +509,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -564,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -575,19 +573,19 @@
         <v>0.375</v>
       </c>
       <c r="D3" s="4">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -610,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -633,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -656,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -679,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -702,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -725,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -748,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -771,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -794,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -817,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -840,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -863,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -886,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -909,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -932,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -955,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -978,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1001,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
@@ -1024,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
@@ -1047,26 +1045,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="E24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="8">
         <f>SUM(F2:F23)</f>
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G24" s="8">
         <f>(SUM(G2:G23)/60)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="E25" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="9">
         <f>SUM(F24:G24)</f>
-        <v>132</v>
+        <v>133.5</v>
       </c>
       <c r="G25" s="10"/>
     </row>
@@ -1080,24 +1078,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas/Junio.xlsx
+++ b/Horas/Junio.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
 </sst>
 </file>
@@ -181,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -209,6 +215,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -512,7 +521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
@@ -592,21 +603,17 @@
       <c r="B4" s="3">
         <v>40697</v>
       </c>
-      <c r="C4" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.125</v>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6">
-        <v>6</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
@@ -616,13 +623,13 @@
         <v>40700</v>
       </c>
       <c r="C5" s="4">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D5" s="4">
-        <v>0.125</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>0.1875</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="6">
         <v>6</v>
@@ -1051,7 +1058,7 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F2:F23)</f>
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G24" s="8">
         <f>(SUM(G2:G23)/60)</f>
@@ -1064,7 +1071,7 @@
       </c>
       <c r="F25" s="9">
         <f>SUM(F24:G24)</f>
-        <v>133.5</v>
+        <v>127.5</v>
       </c>
       <c r="G25" s="10"/>
     </row>

--- a/Horas/Junio.xlsx
+++ b/Horas/Junio.xlsx
@@ -211,13 +211,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -521,9 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
@@ -628,7 +626,7 @@
       <c r="D5" s="4">
         <v>0.1875</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="6">
@@ -672,16 +670,16 @@
         <v>0.375</v>
       </c>
       <c r="D7" s="4">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1040,13 +1038,13 @@
         <v>0.375</v>
       </c>
       <c r="D23" s="4">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G23" s="6">
         <v>0</v>
@@ -1058,22 +1056,22 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F2:F23)</f>
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G24" s="8">
         <f>(SUM(G2:G23)/60)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="E25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="10">
         <f>SUM(F24:G24)</f>
-        <v>127.5</v>
-      </c>
-      <c r="G25" s="10"/>
+        <v>130</v>
+      </c>
+      <c r="G25" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Horas/Junio.xlsx
+++ b/Horas/Junio.xlsx
@@ -610,8 +610,12 @@
       <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">

--- a/Horas/Junio.xlsx
+++ b/Horas/Junio.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -647,17 +647,17 @@
       <c r="B6" s="3">
         <v>40701</v>
       </c>
-      <c r="C6" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.125</v>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F6" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
@@ -671,16 +671,16 @@
         <v>40702</v>
       </c>
       <c r="C7" s="4">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="D7" s="4">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G7" s="5">
         <v>30</v>
@@ -697,7 +697,7 @@
         <v>0.375</v>
       </c>
       <c r="D8" s="4">
-        <v>0.125</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -706,7 +706,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -720,7 +720,7 @@
         <v>0.375</v>
       </c>
       <c r="D9" s="4">
-        <v>0.125</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>11</v>
@@ -729,7 +729,7 @@
         <v>6</v>
       </c>
       <c r="G9" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -752,7 +752,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -775,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="G12" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -821,7 +821,7 @@
         <v>6</v>
       </c>
       <c r="G13" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -844,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -867,7 +867,7 @@
         <v>6</v>
       </c>
       <c r="G15" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -890,7 +890,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -913,7 +913,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -936,7 +936,7 @@
         <v>6</v>
       </c>
       <c r="G18" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -959,7 +959,7 @@
         <v>6</v>
       </c>
       <c r="G19" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -973,13 +973,13 @@
         <v>0.375</v>
       </c>
       <c r="D20" s="4">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
@@ -996,13 +996,13 @@
         <v>0.375</v>
       </c>
       <c r="D21" s="4">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
@@ -1019,15 +1019,15 @@
         <v>0.375</v>
       </c>
       <c r="D22" s="4">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="6">
-        <v>6</v>
-      </c>
-      <c r="G22" s="6">
+        <v>7</v>
+      </c>
+      <c r="G22" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       <c r="F23" s="6">
         <v>7</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1060,11 +1060,11 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F2:F23)</f>
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G24" s="8">
         <f>(SUM(G2:G23)/60)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:7">

--- a/Horas/Junio.xlsx
+++ b/Horas/Junio.xlsx
@@ -674,16 +674,16 @@
         <v>0.4375</v>
       </c>
       <c r="D7" s="4">
-        <v>0.125</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -697,16 +697,16 @@
         <v>0.375</v>
       </c>
       <c r="D8" s="4">
-        <v>0.14583333333333334</v>
+        <v>0.125</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F8" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -720,16 +720,16 @@
         <v>0.375</v>
       </c>
       <c r="D9" s="4">
-        <v>0.14583333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F9" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -743,16 +743,16 @@
         <v>0.375</v>
       </c>
       <c r="D10" s="4">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1060,11 +1060,11 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F2:F23)</f>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G24" s="8">
         <f>(SUM(G2:G23)/60)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7">

--- a/Horas/Junio.xlsx
+++ b/Horas/Junio.xlsx
@@ -674,7 +674,7 @@
         <v>0.4375</v>
       </c>
       <c r="D7" s="4">
-        <v>0.14583333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="G24" s="8">
         <f>(SUM(G2:G23)/60)</f>
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="F25" s="10">
         <f>SUM(F24:G24)</f>
-        <v>130</v>
+        <v>130.5</v>
       </c>
       <c r="G25" s="11"/>
     </row>

--- a/Horas/Junio.xlsx
+++ b/Horas/Junio.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="8505"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -72,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +309,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -343,6 +344,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -518,14 +520,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -571,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -594,7 +596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -617,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -625,10 +627,10 @@
         <v>40700</v>
       </c>
       <c r="C5" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="D5" s="4">
-        <v>0.1875</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>16</v>
@@ -640,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -663,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -686,7 +688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -709,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -732,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -755,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -778,7 +780,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -801,7 +803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -824,7 +826,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -847,7 +849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -870,7 +872,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -893,7 +895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -916,7 +918,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -939,7 +941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -962,7 +964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -985,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1008,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
@@ -1031,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E24" s="8" t="s">
         <v>13</v>
       </c>
@@ -1067,7 +1069,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
         <v>14</v>
       </c>
@@ -1087,24 +1089,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas/Junio.xlsx
+++ b/Horas/Junio.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="8505"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -72,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,7 +309,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -344,7 +343,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,14 +518,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -688,7 +688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="D8" s="4">
         <v>0.125</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="6">
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -722,9 +722,9 @@
         <v>0.375</v>
       </c>
       <c r="D9" s="4">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E9" s="7" t="s">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="6">
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -780,7 +780,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -803,7 +803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -826,7 +826,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -849,7 +849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -872,7 +872,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -895,7 +895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -918,7 +918,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -941,7 +941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -964,7 +964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="E24" s="8" t="s">
         <v>13</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="E25" s="8" t="s">
         <v>14</v>
       </c>
@@ -1089,24 +1089,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas/Junio.xlsx
+++ b/Horas/Junio.xlsx
@@ -522,7 +522,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -742,10 +742,10 @@
         <v>40707</v>
       </c>
       <c r="C10" s="4">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="D10" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -768,7 +768,7 @@
         <v>0.375</v>
       </c>
       <c r="D11" s="4">
-        <v>0.125</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>11</v>
@@ -791,7 +791,7 @@
         <v>0.375</v>
       </c>
       <c r="D12" s="4">
-        <v>0.125</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
@@ -814,7 +814,7 @@
         <v>0.375</v>
       </c>
       <c r="D13" s="4">
-        <v>0.125</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
@@ -837,7 +837,7 @@
         <v>0.375</v>
       </c>
       <c r="D14" s="4">
-        <v>0.125</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
@@ -860,7 +860,7 @@
         <v>0.375</v>
       </c>
       <c r="D15" s="4">
-        <v>0.125</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>11</v>
@@ -883,7 +883,7 @@
         <v>0.375</v>
       </c>
       <c r="D16" s="4">
-        <v>0.125</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>

--- a/Horas/Junio.xlsx
+++ b/Horas/Junio.xlsx
@@ -522,7 +522,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -768,7 +768,7 @@
         <v>0.375</v>
       </c>
       <c r="D11" s="4">
-        <v>0.14583333333333334</v>
+        <v>0.15625</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>11</v>
@@ -777,7 +777,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="5">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="G24" s="8">
         <f>(SUM(G2:G23)/60)</f>
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="F25" s="10">
         <f>SUM(F24:G24)</f>
-        <v>130.5</v>
+        <v>130.75</v>
       </c>
       <c r="G25" s="11"/>
     </row>

--- a/Horas/Junio.xlsx
+++ b/Horas/Junio.xlsx
@@ -522,7 +522,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -788,10 +788,10 @@
         <v>40709</v>
       </c>
       <c r="C12" s="4">
-        <v>0.375</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D12" s="4">
-        <v>0.14583333333333334</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>

--- a/Horas/Junio.xlsx
+++ b/Horas/Junio.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="8505"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -72,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +309,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -343,6 +344,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -518,16 +520,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -561,19 +561,19 @@
         <v>0.375</v>
       </c>
       <c r="D2" s="4">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -676,19 +676,19 @@
         <v>0.4375</v>
       </c>
       <c r="D7" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.1875</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -768,19 +768,19 @@
         <v>0.375</v>
       </c>
       <c r="D11" s="4">
-        <v>0.15625</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -791,42 +791,42 @@
         <v>0.36805555555555558</v>
       </c>
       <c r="D12" s="4">
-        <v>0.1388888888888889</v>
+        <v>0.15972222222222224</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G12" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="3">
         <v>40710</v>
       </c>
-      <c r="C13" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.14583333333333334</v>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F13" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G13" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -837,19 +837,19 @@
         <v>0.375</v>
       </c>
       <c r="D14" s="4">
-        <v>0.14583333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G14" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -860,19 +860,19 @@
         <v>0.375</v>
       </c>
       <c r="D15" s="4">
-        <v>0.14583333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G15" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -883,19 +883,19 @@
         <v>0.375</v>
       </c>
       <c r="D16" s="4">
-        <v>0.14583333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G16" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -906,19 +906,19 @@
         <v>0.375</v>
       </c>
       <c r="D17" s="4">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G17" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -929,19 +929,19 @@
         <v>0.375</v>
       </c>
       <c r="D18" s="4">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G18" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -952,19 +952,19 @@
         <v>0.375</v>
       </c>
       <c r="D19" s="4">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G19" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
@@ -1056,26 +1056,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="8">
         <f>SUM(F2:F23)</f>
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G24" s="8">
         <f>(SUM(G2:G23)/60)</f>
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="10">
         <f>SUM(F24:G24)</f>
-        <v>130.75</v>
+        <v>129.5</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -1089,24 +1089,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas/Junio.xlsx
+++ b/Horas/Junio.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="8505"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -72,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,7 +309,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -344,7 +343,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,14 +518,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -834,10 +834,10 @@
         <v>40711</v>
       </c>
       <c r="C14" s="4">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="D14" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="E24" s="8" t="s">
         <v>13</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="E25" s="8" t="s">
         <v>14</v>
       </c>
@@ -1089,24 +1089,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas/Junio.xlsx
+++ b/Horas/Junio.xlsx
@@ -522,7 +522,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -857,10 +857,10 @@
         <v>40714</v>
       </c>
       <c r="C15" s="4">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="D15" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>11</v>

--- a/Horas/Junio.xlsx
+++ b/Horas/Junio.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="8505"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -72,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +309,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -343,6 +344,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -518,16 +520,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -895,30 +895,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="3">
         <v>40716</v>
       </c>
-      <c r="C17" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.16666666666666666</v>
+      <c r="C17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F17" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G17" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -929,19 +929,19 @@
         <v>0.375</v>
       </c>
       <c r="D18" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G18" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -952,19 +952,19 @@
         <v>0.375</v>
       </c>
       <c r="D19" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G19" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -975,19 +975,19 @@
         <v>0.375</v>
       </c>
       <c r="D20" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -998,19 +998,19 @@
         <v>0.375</v>
       </c>
       <c r="D21" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
@@ -1021,19 +1021,19 @@
         <v>0.375</v>
       </c>
       <c r="D22" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G22" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
@@ -1044,38 +1044,38 @@
         <v>0.375</v>
       </c>
       <c r="D23" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G23" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="8">
         <f>SUM(F2:F23)</f>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G24" s="8">
         <f>(SUM(G2:G23)/60)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="10">
         <f>SUM(F24:G24)</f>
-        <v>129.5</v>
+        <v>128.5</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -1089,24 +1089,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas/Junio.xlsx
+++ b/Horas/Junio.xlsx
@@ -523,7 +523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -630,13 +632,13 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="D5" s="4">
-        <v>0.19444444444444445</v>
+        <v>0.23611111111111113</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
@@ -926,16 +928,16 @@
         <v>40717</v>
       </c>
       <c r="C18" s="4">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D18" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="F18" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="5">
         <v>0</v>

--- a/Horas/Junio.xlsx
+++ b/Horas/Junio.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="8505"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="18">
   <si>
     <t>Día</t>
   </si>
@@ -67,13 +67,16 @@
   </si>
   <si>
     <t>SI</t>
+  </si>
+  <si>
+    <t>Sabado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,7 +312,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -344,7 +346,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,16 +521,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -575,7 +576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -598,7 +599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -621,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -644,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -667,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -690,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -713,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -736,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -759,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -782,7 +783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -805,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -828,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -851,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -874,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -897,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -920,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -943,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -960,41 +961,41 @@
         <v>11</v>
       </c>
       <c r="F19" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G19" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3">
+        <v>40719</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="6">
+        <v>6</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3">
         <v>40721</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="6">
-        <v>8</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="3">
-        <v>40722</v>
       </c>
       <c r="C21" s="4">
         <v>0.375</v>
@@ -1012,12 +1013,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="3">
-        <v>40723</v>
+        <v>40722</v>
       </c>
       <c r="C22" s="4">
         <v>0.375</v>
@@ -1035,12 +1036,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="3">
-        <v>40724</v>
+        <v>40723</v>
       </c>
       <c r="C23" s="4">
         <v>0.375</v>
@@ -1058,32 +1059,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="8" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="3">
+        <v>40724</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="6">
+        <v>8</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="E25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="8">
-        <f>SUM(F2:F23)</f>
-        <v>128</v>
-      </c>
-      <c r="G24" s="8">
-        <f>(SUM(G2:G23)/60)</f>
+      <c r="F25" s="8">
+        <f>SUM(F2:F24)</f>
+        <v>126</v>
+      </c>
+      <c r="G25" s="8">
+        <f>(SUM(G2:G24)/60)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="8" t="s">
+    <row r="26" spans="1:7">
+      <c r="E26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="10">
-        <f>SUM(F24:G24)</f>
-        <v>128.5</v>
-      </c>
-      <c r="G25" s="11"/>
+      <c r="F26" s="10">
+        <f>SUM(F25:G25)</f>
+        <v>126.5</v>
+      </c>
+      <c r="G26" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1091,24 +1115,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas/Junio.xlsx
+++ b/Horas/Junio.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="8505"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="18">
   <si>
     <t>Día</t>
   </si>
@@ -75,8 +75,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +312,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -346,6 +347,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -521,16 +523,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -576,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -599,7 +601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -622,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -645,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -668,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -691,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -702,19 +704,19 @@
         <v>0.375</v>
       </c>
       <c r="D8" s="4">
-        <v>0.125</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -737,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -760,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -806,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -852,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -875,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -898,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -921,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -944,21 +946,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="3">
         <v>40718</v>
       </c>
-      <c r="C19" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.25</v>
+      <c r="C19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F19" s="6">
         <v>0</v>
@@ -967,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -990,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
@@ -1013,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1036,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
@@ -1059,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
@@ -1082,26 +1084,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="8">
         <f>SUM(F2:F24)</f>
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G25" s="8">
         <f>(SUM(G2:G24)/60)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E26" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="10">
         <f>SUM(F25:G25)</f>
-        <v>126.5</v>
+        <v>128.5</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -1115,24 +1117,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas/Junio.xlsx
+++ b/Horas/Junio.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="18">
   <si>
     <t>Día</t>
   </si>
@@ -526,9 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -563,10 +561,10 @@
         <v>40695</v>
       </c>
       <c r="C2" s="4">
-        <v>0.375</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="D2" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>11</v>
@@ -575,7 +573,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -727,7 +725,7 @@
         <v>0.375</v>
       </c>
       <c r="D9" s="4">
-        <v>0.20833333333333334</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>16</v>
@@ -736,7 +734,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -773,7 +771,7 @@
         <v>0.375</v>
       </c>
       <c r="D11" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.1875</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>11</v>
@@ -782,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -885,10 +883,10 @@
         <v>40715</v>
       </c>
       <c r="C16" s="4">
-        <v>0.375</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="D16" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
@@ -897,7 +895,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -999,17 +997,17 @@
       <c r="B21" s="3">
         <v>40721</v>
       </c>
-      <c r="C21" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.25</v>
+      <c r="C21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F21" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
@@ -1026,16 +1024,16 @@
         <v>0.375</v>
       </c>
       <c r="D22" s="4">
-        <v>0.25</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1045,17 +1043,17 @@
       <c r="B23" s="3">
         <v>40723</v>
       </c>
-      <c r="C23" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.25</v>
+      <c r="C23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F23" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G23" s="5">
         <v>0</v>
@@ -1090,11 +1088,11 @@
       </c>
       <c r="F25" s="8">
         <f>SUM(F2:F24)</f>
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="G25" s="8">
         <f>(SUM(G2:G24)/60)</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1103,7 +1101,7 @@
       </c>
       <c r="F26" s="10">
         <f>SUM(F25:G25)</f>
-        <v>128.5</v>
+        <v>114</v>
       </c>
       <c r="G26" s="11"/>
     </row>

--- a/Horas/Junio.xlsx
+++ b/Horas/Junio.xlsx
@@ -1072,11 +1072,11 @@
       <c r="D24" s="4">
         <v>0.25</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
+      <c r="E24" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="F24" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" s="5">
         <v>0</v>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F25" s="8">
         <f>SUM(F2:F24)</f>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G25" s="8">
         <f>(SUM(G2:G24)/60)</f>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F26" s="10">
         <f>SUM(F25:G25)</f>
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G26" s="11"/>
     </row>

--- a/Horas/Junio.xlsx
+++ b/Horas/Junio.xlsx
@@ -1030,7 +1030,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G22" s="5">
         <v>30</v>
@@ -1070,7 +1070,7 @@
         <v>0.375</v>
       </c>
       <c r="D24" s="4">
-        <v>0.25</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>16</v>
@@ -1079,7 +1079,7 @@
         <v>7</v>
       </c>
       <c r="G24" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="F25" s="8">
         <f>SUM(F2:F24)</f>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G25" s="8">
         <f>(SUM(G2:G24)/60)</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F26" s="10">
         <f>SUM(F25:G25)</f>
-        <v>113</v>
+        <v>114.5</v>
       </c>
       <c r="G26" s="11"/>
     </row>

--- a/Horas/Junio.xlsx
+++ b/Horas/Junio.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="8505"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="19">
   <si>
     <t>Día</t>
   </si>
@@ -70,13 +70,16 @@
   </si>
   <si>
     <t>Sabado</t>
+  </si>
+  <si>
+    <t>FERIADO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +98,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -186,11 +204,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,6 +250,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -312,7 +353,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -347,7 +387,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,14 +562,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -576,7 +617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -599,7 +640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -622,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -645,7 +686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -668,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -691,7 +732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -714,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -737,7 +778,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -760,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -783,7 +824,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -806,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -829,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -852,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -875,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -898,7 +939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -921,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -944,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -967,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -990,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
@@ -1013,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1036,30 +1077,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="15">
         <v>40723</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
@@ -1082,7 +1115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="E25" s="8" t="s">
         <v>13</v>
       </c>
@@ -1095,7 +1128,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="E26" s="8" t="s">
         <v>14</v>
       </c>
@@ -1106,8 +1139,9 @@
       <c r="G26" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1115,24 +1149,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
